--- a/data/export_resep_2024-05-14.xlsx
+++ b/data/export_resep_2024-05-14.xlsx
@@ -471,12 +471,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Roti Manis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>RM01</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -492,12 +492,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ROti tepung</t>
+          <t>Roti Coklat</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hpp01</t>
+          <t>RC01</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -513,12 +513,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sda</t>
+          <t>Roti Keju</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>RK01</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -549,7 +549,7 @@
         <v>50000</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -570,7 +570,7 @@
         <v>60000</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -591,7 +591,7 @@
         <v>70000</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -612,7 +612,7 @@
         <v>56000</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -633,7 +633,7 @@
         <v>30000</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -654,7 +654,7 @@
         <v>36000</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -675,7 +675,7 @@
         <v>64000</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -696,7 +696,7 @@
         <v>54000</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -717,7 +717,7 @@
         <v>40000</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -738,7 +738,7 @@
         <v>24000</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -815,12 +815,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>RM01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Roti Manis</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -855,12 +855,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>RM01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Roti Manis</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -895,12 +895,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hpp01</t>
+          <t>RC01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ROti tepung</t>
+          <t>Roti Coklat</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -935,12 +935,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>RK01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sda</t>
+          <t>Roti Keju</t>
         </is>
       </c>
       <c r="C5" t="n">
